--- a/reports/general-dynamics/general-dynamics.xlsx
+++ b/reports/general-dynamics/general-dynamics.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t xml:space="preserve">total tickets</t>
   </si>
@@ -35,6 +35,96 @@
   </si>
   <si>
     <t xml:space="preserve">report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-13_2022-09-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report_status_2022-09-13_2022-09-19_1663671095.xlsx'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-20_2022-09-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report_status_2022-09-20_2022-09-26_1664267719 (1).xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-27_2022-10-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report_status_2022-09-27_2022-10-03_1664865021 (2).xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-11_2022-10-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report_status_2022-10-11_2022-10-17_1666078001.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-18_2022-10-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report_status_2022-10-18_2022-10-24_1666685415.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-25_2022-10-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report_status_2022-10-25_2022-10-31_GENERAL.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-01_2022-11-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report_status_2022-11-01_2022-11-07_1667890170.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-08_2022-11-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report_status_2022-11-08_2022-11-14_1668492494.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-22_2022-11-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Report_status_2022-11-22_2022-11-28_1669720318.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-29_2022-12-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report_status_2022-11-29_2022-12-05_1670325778.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-06_2022-12-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report_status_2022-12-06_2022-12-12_1670931435.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">2.46</t>
@@ -72,11 +162,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -92,6 +183,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,17 +232,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -166,86 +274,273 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B:B"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="53.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="14.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="53.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>715</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>803</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>801</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>814</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
+        <v>712</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>656</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="D13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="D14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>480</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>13</v>
+      <c r="D15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/reports/general-dynamics/general-dynamics.xlsx
+++ b/reports/general-dynamics/general-dynamics.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t xml:space="preserve">total tickets</t>
   </si>
@@ -35,6 +35,24 @@
   </si>
   <si>
     <t xml:space="preserve">report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-08-23_2022-08-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report_status_2022-08-23_2022-08-29_16618495381.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-08-30_2022-09-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report_status_2022-08-30_2022-09-05_1662467914_UPD.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">3.38</t>
@@ -253,7 +271,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -274,7 +292,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -307,13 +325,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>527</v>
+        <v>446</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>46</v>
+      <c r="C2" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
@@ -324,13 +342,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>502</v>
+        <v>474</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>44</v>
+      <c r="C3" s="1" t="n">
+        <v>46</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
@@ -341,49 +359,49 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C4" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>612</v>
+        <v>480</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C5" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>654</v>
+        <v>507</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>52</v>
-      </c>
-      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -392,7 +410,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>715</v>
+        <v>612</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>19</v>
@@ -409,47 +427,47 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>803</v>
+        <v>654</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>801</v>
+        <v>715</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>28</v>
@@ -460,47 +478,47 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>623</v>
+        <v>801</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
-        <v>712</v>
+      <c r="A12" s="1" t="n">
+        <v>814</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>656</v>
+        <v>623</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>36</v>
@@ -510,14 +528,14 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>512</v>
+      <c r="A14" s="5" t="n">
+        <v>712</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>39</v>
@@ -528,19 +546,53 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>480</v>
+        <v>656</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/reports/general-dynamics/general-dynamics.xlsx
+++ b/reports/general-dynamics/general-dynamics.xlsx
@@ -180,7 +180,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -201,11 +201,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -250,7 +245,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -260,10 +255,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -367,7 +358,7 @@
       <c r="C4" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -384,7 +375,7 @@
       <c r="C5" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -401,7 +392,7 @@
       <c r="C6" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -418,7 +409,7 @@
       <c r="C7" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -435,7 +426,7 @@
       <c r="C8" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -452,7 +443,7 @@
       <c r="C9" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -469,7 +460,7 @@
       <c r="C10" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -486,7 +477,7 @@
       <c r="C11" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -503,7 +494,7 @@
       <c r="C12" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -520,7 +511,7 @@
       <c r="C13" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -528,7 +519,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+      <c r="A14" s="4" t="n">
         <v>712</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -537,7 +528,7 @@
       <c r="C14" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -554,7 +545,7 @@
       <c r="C15" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -571,7 +562,7 @@
       <c r="C16" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -588,7 +579,7 @@
       <c r="C17" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>48</v>
       </c>
       <c r="E17" s="1" t="s">

--- a/reports/general-dynamics/general-dynamics.xlsx
+++ b/reports/general-dynamics/general-dynamics.xlsx
@@ -286,7 +286,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/reports/general-dynamics/general-dynamics.xlsx
+++ b/reports/general-dynamics/general-dynamics.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t xml:space="preserve">total tickets</t>
   </si>
@@ -127,7 +127,7 @@
     <t xml:space="preserve">2022-11-22_2022-11-28</t>
   </si>
   <si>
-    <t xml:space="preserve">'Report_status_2022-11-22_2022-11-28_1669720318.xlsx</t>
+    <t xml:space="preserve">Report_status_2022-11-22_2022-11-28_1669720318.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">2022-11-29_2022-12-05</t>
@@ -170,6 +170,15 @@
   </si>
   <si>
     <t xml:space="preserve">Report_status_2022-12-27_2023-01-02_1672746312.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-03_2023-01-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report_status_2023-01-03_2023-01-09_1673351175.xlsx</t>
   </si>
 </sst>
 </file>
@@ -180,7 +189,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -201,6 +210,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -245,7 +259,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -266,6 +280,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -283,10 +301,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -586,6 +604,23 @@
         <v>49</v>
       </c>
     </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>556</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
